--- a/README.md/Test Scenario and test cases.xlsx
+++ b/README.md/Test Scenario and test cases.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyIndiaa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CF1B7E-134B-4A78-9860-15423FC2627B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966EF0E4-F583-40B3-9F0C-8F95D2DD9928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{CD7FA774-12AF-413F-A0AA-7E644B7B0EB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Search" sheetId="3" r:id="rId3"/>
-    <sheet name="Add to Cart" sheetId="5" r:id="rId4"/>
-    <sheet name="Log Out" sheetId="6" r:id="rId5"/>
+    <sheet name="Sign in" sheetId="7" r:id="rId2"/>
+    <sheet name="Login" sheetId="2" r:id="rId3"/>
+    <sheet name="Search" sheetId="3" r:id="rId4"/>
+    <sheet name="Add to Cart" sheetId="5" r:id="rId5"/>
+    <sheet name="Log Out" sheetId="6" r:id="rId6"/>
+    <sheet name="Bug Report" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="388">
   <si>
     <t>Project Name</t>
   </si>
@@ -409,12 +411,6 @@
     <t>To verify search functionality that search results are paginated if results are more than 1 page</t>
   </si>
   <si>
-    <t>TC_SF_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To verify search functionalites </t>
-  </si>
-  <si>
     <t>Test ID</t>
   </si>
   <si>
@@ -433,12 +429,6 @@
     <t xml:space="preserve">Expected Result </t>
   </si>
   <si>
-    <t>TC_SN_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> To verify singin functionality</t>
-  </si>
-  <si>
     <t>To verify sign in functionality enter valid mobile number and password</t>
   </si>
   <si>
@@ -469,69 +459,6 @@
     <t xml:space="preserve">User should be able to sign in </t>
   </si>
   <si>
-    <t>TC_SN_02</t>
-  </si>
-  <si>
-    <t>TC_SN_03</t>
-  </si>
-  <si>
-    <t>TC_SN_04</t>
-  </si>
-  <si>
-    <t>TC_SN_05</t>
-  </si>
-  <si>
-    <t>TC_SN_06</t>
-  </si>
-  <si>
-    <t>TC_SN_07</t>
-  </si>
-  <si>
-    <t>TC_SN_08</t>
-  </si>
-  <si>
-    <t>TC_SN_09</t>
-  </si>
-  <si>
-    <t>TC_SN_10</t>
-  </si>
-  <si>
-    <t>TC_SN_11</t>
-  </si>
-  <si>
-    <t>TC_SN_12</t>
-  </si>
-  <si>
-    <t>TC_SN_13</t>
-  </si>
-  <si>
-    <t>TC_SN_14</t>
-  </si>
-  <si>
-    <t>TC_SN_15</t>
-  </si>
-  <si>
-    <t>TC_SN_16</t>
-  </si>
-  <si>
-    <t>TC_SN_17</t>
-  </si>
-  <si>
-    <t>TC_SN_18</t>
-  </si>
-  <si>
-    <t>TC_SN_19</t>
-  </si>
-  <si>
-    <t>TC_SN_20</t>
-  </si>
-  <si>
-    <t>TC_SN_21</t>
-  </si>
-  <si>
-    <t>TC_SN_22</t>
-  </si>
-  <si>
     <t>3. Click on Get an OTP on your phone Option</t>
   </si>
   <si>
@@ -877,15 +804,6 @@
     <t>TC_LOF_05</t>
   </si>
   <si>
-    <t>TC_LOF_06</t>
-  </si>
-  <si>
-    <t>TC_LOF_07</t>
-  </si>
-  <si>
-    <t>TC_LOF_08</t>
-  </si>
-  <si>
     <t xml:space="preserve">To verify sign out functionality clicking on browser back button after Logout </t>
   </si>
   <si>
@@ -931,12 +849,6 @@
     <t>TS_ID_04</t>
   </si>
   <si>
-    <t>To verify Add to cart functionality</t>
-  </si>
-  <si>
-    <t>TO verify Logout functionality</t>
-  </si>
-  <si>
     <t>P0</t>
   </si>
   <si>
@@ -956,13 +868,349 @@
   </si>
   <si>
     <t>MyIndiaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To verify singin functionality of amazon.com</t>
+  </si>
+  <si>
+    <t>To verify search functionality amazon.com</t>
+  </si>
+  <si>
+    <t>To verify Add to cart functionality amazon.com</t>
+  </si>
+  <si>
+    <t>TO verify Logout functionality amazon.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To verify Sign In functionality of amazon.com</t>
+  </si>
+  <si>
+    <t>To verify Sign In functionality of amazon.com</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_01</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_02</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_03</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_04</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_05</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_06</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_07</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_08</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_09</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_10</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_11</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_12</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_13</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_14</t>
+  </si>
+  <si>
+    <t>TC_Sign In Fun_ID_15</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_01</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_02</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_03</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_04</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_05</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_06</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_07</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_08</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_09</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_10</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_11</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_12</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_13</t>
+  </si>
+  <si>
+    <t>TC_UR_ID_14</t>
+  </si>
+  <si>
+    <t>Verify registration page opens successfully</t>
+  </si>
+  <si>
+    <t>1. Navigate to Amazon home page</t>
+  </si>
+  <si>
+    <t>2. Mouse hover on sing in option</t>
+  </si>
+  <si>
+    <t>3. Click on New Customer Start Here</t>
+  </si>
+  <si>
+    <t>The registration page should open successfully</t>
+  </si>
+  <si>
+    <t>To verify that registration functionality user can register with valid data</t>
+  </si>
+  <si>
+    <t>3. Navigate to Amazon home page</t>
+  </si>
+  <si>
+    <t>4. Mouse hover on sing in option</t>
+  </si>
+  <si>
+    <t>5. Click on New Customer Start Here</t>
+  </si>
+  <si>
+    <t>1. Enter the valid name</t>
+  </si>
+  <si>
+    <t>2.Enter the valid mobile number</t>
+  </si>
+  <si>
+    <t>3.Enter the valid password</t>
+  </si>
+  <si>
+    <t>4. Click on verify Mobile number</t>
+  </si>
+  <si>
+    <t>Rajvijay kumar</t>
+  </si>
+  <si>
+    <t>Vijay@123</t>
+  </si>
+  <si>
+    <t>User should receive a verification</t>
+  </si>
+  <si>
+    <t>To verify that registration functionality enter the existing mobile number</t>
+  </si>
+  <si>
+    <t>2.Enter the Already Existing mobile number</t>
+  </si>
+  <si>
+    <t>An error message should be displayed</t>
+  </si>
+  <si>
+    <t>user should already existing</t>
+  </si>
+  <si>
+    <t>To Verify the registration functionality with password less than 6 characters</t>
+  </si>
+  <si>
+    <t>3.Enter  the password less than 6 charaters</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>password must be at least 6 characters long.</t>
+  </si>
+  <si>
+    <t>An  error message not dislaying</t>
+  </si>
+  <si>
+    <t>To veify that the registration functionality with validate manadetory field</t>
+  </si>
+  <si>
+    <t>1.Leave the name field blank</t>
+  </si>
+  <si>
+    <t>name field is required</t>
+  </si>
+  <si>
+    <t>To Verify registration functionality  with an international phone number</t>
+  </si>
+  <si>
+    <t>Robert Downy Jr</t>
+  </si>
+  <si>
+    <t>Vijay@</t>
+  </si>
+  <si>
+    <t>Robert@123</t>
+  </si>
+  <si>
+    <t>The registration process should proceed without errors</t>
+  </si>
+  <si>
+    <t>We are unable to proceed forther</t>
+  </si>
+  <si>
+    <t>To verify registration functionality With without mobile number</t>
+  </si>
+  <si>
+    <t>2.Leave the mobile number field blank</t>
+  </si>
+  <si>
+    <t>mobile number field is required</t>
+  </si>
+  <si>
+    <t>To verify that the registration functionality with session time out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled some details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and leave that that the windows </t>
+  </si>
+  <si>
+    <t>for 15  min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The session should time out And user should be strart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">again registration proceess </t>
+  </si>
+  <si>
+    <t>But it is not showing any error</t>
+  </si>
+  <si>
+    <t>To verify that the registration field should have placeholder</t>
+  </si>
+  <si>
+    <t>Every field have a placeholder</t>
+  </si>
+  <si>
+    <t>To verify that the registration field should have a right alignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that the registration field check the any spelling mistake </t>
+  </si>
+  <si>
+    <t>To verify that the registration field should have perfect color</t>
+  </si>
+  <si>
+    <t>It is mandatory to showing error message</t>
+  </si>
+  <si>
+    <t>To verify that the registration field mandatory filed has astrick  symbol</t>
+  </si>
+  <si>
+    <t>TS_ID_05</t>
+  </si>
+  <si>
+    <t>To verify New user registration functionality of amazon.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to see clearly sub total price of the cart </t>
+  </si>
+  <si>
+    <t>User should be able to device another device cart detailed</t>
+  </si>
+  <si>
+    <t>User should be not able to login</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Description/Bug Summary</t>
+  </si>
+  <si>
+    <t>Pre-requisites</t>
+  </si>
+  <si>
+    <t>Bug steps</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Test executed by</t>
+  </si>
+  <si>
+    <t>Browser/Device</t>
+  </si>
+  <si>
+    <t>Screenshot/video recording</t>
+  </si>
+  <si>
+    <t>Amazon_bug_ID_01</t>
+  </si>
+  <si>
+    <t>Amazon_bug_ID_02</t>
+  </si>
+  <si>
+    <t>Amazon_bug_ID_03</t>
+  </si>
+  <si>
+    <t>Amazon_bug_ID_04</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Hariom kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrome verion 126.0.6478.114 </t>
+  </si>
+  <si>
+    <t>2.Enter the valid Internationalmobile number</t>
+  </si>
+  <si>
+    <t>User should able to registration with international mobile number</t>
+  </si>
+  <si>
+    <t>Because amazon is a multinational company</t>
+  </si>
+  <si>
+    <t>if the user is not comeplete registration with in the tiime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that time got a session time out </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,8 +1250,36 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1028,8 +1304,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1145,11 +1439,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1216,9 +1525,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{DD407B17-CD3D-44FF-A3D8-9688FC4C6980}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1530,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61ABE8EF-70ED-4714-A82E-5A362B9D32A9}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,7 +1885,7 @@
     <col min="5" max="5" width="25.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1555,64 +1895,55 @@
       <c r="C1" s="8"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5">
         <v>45463</v>
       </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1628,101 +1959,147 @@
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E11" s="2">
-        <v>20</v>
-      </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C12" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E13" s="2">
-        <v>20</v>
-      </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C14" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
-        <v>297</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C16" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="33"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="16"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1730,28 +2107,1035 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA52EBA-29AA-4BE8-94F0-0B96D79A91BE}">
+  <dimension ref="A1:J79"/>
+  <sheetViews>
+    <sheetView topLeftCell="E53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="E5" t="s">
+        <v>312</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="D6" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="D10" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="D11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="D12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8809766036</v>
+      </c>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="D13" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" t="s">
+        <v>326</v>
+      </c>
+      <c r="H13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="D17" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="D18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>320</v>
+      </c>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="D19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="D20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" t="s">
+        <v>322</v>
+      </c>
+      <c r="F20" s="1">
+        <v>8809766036</v>
+      </c>
+      <c r="G20" t="s">
+        <v>329</v>
+      </c>
+      <c r="H20" t="s">
+        <v>329</v>
+      </c>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="D24" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="D25" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>320</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="D26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E26" t="s">
+        <v>321</v>
+      </c>
+      <c r="F26" s="1">
+        <v>8809766036</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="D27" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" t="s">
+        <v>332</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+      <c r="D32" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="D33" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>320</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="D34" t="s">
+        <v>317</v>
+      </c>
+      <c r="E34" t="s">
+        <v>321</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8809766036</v>
+      </c>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="D35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" t="s">
+        <v>332</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F37"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="D39" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="D40" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>337</v>
+      </c>
+      <c r="F40"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="D41" t="s">
+        <v>317</v>
+      </c>
+      <c r="E41" t="s">
+        <v>321</v>
+      </c>
+      <c r="F41" s="1">
+        <v>8809766036</v>
+      </c>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="D42" t="s">
+        <v>318</v>
+      </c>
+      <c r="E42" t="s">
+        <v>332</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G42" t="s">
+        <v>329</v>
+      </c>
+      <c r="H42" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="I43" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
+      <c r="D46" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="11"/>
+      <c r="D47" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>320</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="11"/>
+      <c r="D48" t="s">
+        <v>317</v>
+      </c>
+      <c r="E48" t="s">
+        <v>383</v>
+      </c>
+      <c r="F48" s="1">
+        <v>971543867623</v>
+      </c>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
+      <c r="D49" t="s">
+        <v>318</v>
+      </c>
+      <c r="E49" t="s">
+        <v>322</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>342</v>
+      </c>
+      <c r="G49" t="s">
+        <v>343</v>
+      </c>
+      <c r="H49" t="s">
+        <v>344</v>
+      </c>
+      <c r="I49" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="10"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="D53" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="11"/>
+      <c r="D54" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
+        <v>320</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
+      <c r="D55" t="s">
+        <v>317</v>
+      </c>
+      <c r="E55" t="s">
+        <v>346</v>
+      </c>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
+      <c r="D56" t="s">
+        <v>318</v>
+      </c>
+      <c r="E56" t="s">
+        <v>322</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G56" t="s">
+        <v>329</v>
+      </c>
+      <c r="H56" t="s">
+        <v>329</v>
+      </c>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F57" s="14"/>
+      <c r="G57" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="I57" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" s="16"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="10"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="11"/>
+      <c r="D60" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60"/>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="11"/>
+      <c r="D61" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" t="s">
+        <v>320</v>
+      </c>
+      <c r="F61" t="s">
+        <v>349</v>
+      </c>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
+      <c r="D62" t="s">
+        <v>317</v>
+      </c>
+      <c r="E62" t="s">
+        <v>346</v>
+      </c>
+      <c r="F62" t="s">
+        <v>350</v>
+      </c>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="11"/>
+      <c r="D63" t="s">
+        <v>318</v>
+      </c>
+      <c r="E63" t="s">
+        <v>322</v>
+      </c>
+      <c r="F63" t="s">
+        <v>351</v>
+      </c>
+      <c r="G63" t="s">
+        <v>352</v>
+      </c>
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="I64" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="16"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E65" s="1"/>
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="10"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="11"/>
+      <c r="D67" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67"/>
+      <c r="J67" s="12"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="11"/>
+      <c r="D68" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68"/>
+      <c r="J68" s="12"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="11"/>
+      <c r="D69" t="s">
+        <v>317</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69"/>
+      <c r="J69" s="12"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="11"/>
+      <c r="D70" t="s">
+        <v>318</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70"/>
+      <c r="J70" s="12"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E71" s="14"/>
+      <c r="F71" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="I71" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="J71" s="16"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B73" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B75" t="s">
+        <v>276</v>
+      </c>
+      <c r="C75" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="13"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77" t="s">
+        <v>276</v>
+      </c>
+      <c r="C77" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="13"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" t="s">
+        <v>276</v>
+      </c>
+      <c r="C79" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F13" r:id="rId1" xr:uid="{68D21023-393A-4241-B993-D8470E826E1E}"/>
+    <hyperlink ref="F21" r:id="rId2" xr:uid="{6662C816-C4BC-4A2D-AC0C-656081A042A2}"/>
+    <hyperlink ref="F27" r:id="rId3" display="Vijay@123" xr:uid="{9F8B70D9-F993-46B7-9C45-AB9A6722C0CD}"/>
+    <hyperlink ref="F35" r:id="rId4" display="Vijay@123" xr:uid="{FD19DF4C-7CF3-4876-A1FE-CAE505DE54B9}"/>
+    <hyperlink ref="F42" r:id="rId5" xr:uid="{B5816160-C896-4D15-8E98-F67A2DC8B823}"/>
+    <hyperlink ref="F49" r:id="rId6" xr:uid="{4E314C0A-5DC9-4F54-9DF9-BBE52D52022B}"/>
+    <hyperlink ref="F56" r:id="rId7" display="Vijay@123" xr:uid="{D48B407D-4115-4210-B68A-B252E4C9D575}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13C98A0-A99D-422C-BA45-6D298CF628B0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="D1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1"/>
-    <col min="3" max="3" width="72.5546875" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.88671875" customWidth="1"/>
     <col min="6" max="6" width="20.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.21875" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1760,7 +3144,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>16</v>
@@ -1793,10 +3177,10 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>136</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -1806,10 +3190,10 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="D4" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J4" s="12"/>
     </row>
@@ -1819,37 +3203,37 @@
         <v>28</v>
       </c>
       <c r="E5" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>142</v>
-      </c>
       <c r="H5" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>135</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>139</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="14"/>
@@ -1864,10 +3248,10 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1877,13 +3261,13 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="D9" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="J9" s="12"/>
     </row>
@@ -1893,34 +3277,34 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="16"/>
@@ -1931,7 +3315,7 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="8"/>
@@ -1942,10 +3326,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="D15" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J15" s="12"/>
     </row>
@@ -1955,39 +3339,39 @@
         <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>169</v>
-      </c>
       <c r="F17" s="15" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="I17" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J17" s="16"/>
@@ -1998,7 +3382,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="8"/>
@@ -2009,19 +3393,19 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="D21" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="H21" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="J21" s="12"/>
     </row>
@@ -2031,33 +3415,33 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="H22" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="I23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J23" s="16"/>
@@ -2077,7 +3461,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="D26" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J26" s="12"/>
     </row>
@@ -2087,39 +3471,39 @@
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="H27" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="I28" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J28" s="16"/>
@@ -2130,7 +3514,7 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="8"/>
@@ -2141,19 +3525,19 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="D31" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="G31" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="H31" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="J31" s="12"/>
     </row>
@@ -2163,37 +3547,37 @@
         <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="G32" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="H32" t="s">
-        <v>187</v>
-      </c>
-      <c r="I32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I32" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="14"/>
@@ -2207,7 +3591,7 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="8"/>
@@ -2218,13 +3602,13 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="D36" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -2234,43 +3618,43 @@
         <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G37" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="H37" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="14" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J38" s="16"/>
@@ -2281,7 +3665,7 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="8"/>
@@ -2292,19 +3676,19 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="D41" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G41" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="H41" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="J41" s="12"/>
     </row>
@@ -2314,37 +3698,37 @@
         <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="G42" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="H42" t="s">
-        <v>205</v>
-      </c>
-      <c r="I42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I42" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="14"/>
@@ -2358,10 +3742,10 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -2371,10 +3755,10 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="D46" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J46" s="12"/>
     </row>
@@ -2384,44 +3768,44 @@
         <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="G47" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="H47" t="s">
-        <v>208</v>
-      </c>
-      <c r="I47" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I47" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="14" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="16"/>
@@ -2441,7 +3825,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="D51" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J51" s="12"/>
     </row>
@@ -2451,43 +3835,43 @@
         <v>28</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="G52" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="H52" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>151</v>
+        <v>291</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="14" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="I53" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="I53" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J53" s="16"/>
@@ -2507,7 +3891,7 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="D56" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J56" s="12"/>
     </row>
@@ -2517,35 +3901,35 @@
         <v>28</v>
       </c>
       <c r="G57" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="H57" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E58" s="14"/>
       <c r="F58" s="15"/>
       <c r="G58" s="14" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="I58" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="I58" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J58" s="16"/>
@@ -2565,7 +3949,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="D61" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J61" s="12"/>
     </row>
@@ -2578,26 +3962,26 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="15"/>
       <c r="G63" s="14" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="I63" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="I63" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J63" s="16"/>
@@ -2608,7 +3992,7 @@
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="8"/>
@@ -2619,13 +4003,13 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="D66" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="J66" s="12"/>
     </row>
@@ -2635,42 +4019,42 @@
         <v>28</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G67" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="H67" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="J67" s="12"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
-        <v>154</v>
+        <v>294</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="I68" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I68" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J68" s="16"/>
@@ -2681,7 +4065,7 @@
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="8"/>
@@ -2692,10 +4076,10 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="D71" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J71" s="12"/>
     </row>
@@ -2705,45 +4089,45 @@
         <v>28</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="G72" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="H72" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="J72" s="12"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="I73" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="I73" s="36" t="s">
         <v>35</v>
       </c>
       <c r="J73" s="16"/>
@@ -2754,7 +4138,7 @@
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="8"/>
@@ -2765,13 +4149,13 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="D76" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E76" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J76" s="12"/>
     </row>
@@ -2781,28 +4165,28 @@
         <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J77" s="12"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
@@ -2821,301 +4205,685 @@
       <c r="I80" s="9"/>
       <c r="J80" s="10"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
-      <c r="D81" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="J81" s="12"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-      <c r="D82" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J82" s="12"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="10"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-      <c r="D86" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="J86" s="12"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="D87" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J87" s="12"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="10"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="11"/>
-      <c r="D91" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="J91" s="12"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="11"/>
-      <c r="D92" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J92" s="12"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="7"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="10"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="11"/>
-      <c r="D96" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="J96" s="12"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="11"/>
-      <c r="D97" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J97" s="12"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A100" s="7"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="10"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A101" s="11"/>
-      <c r="D101" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="J101" s="12"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A102" s="11"/>
-      <c r="D102" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J102" s="12"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A103" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E103" s="14"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A105" s="7"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="10"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="11"/>
-      <c r="D106" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="J106" s="12"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="11"/>
-      <c r="D107" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J107" s="12"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" s="14"/>
-      <c r="D108" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E108" s="14"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A111" s="7"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="10"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A112" s="11"/>
-      <c r="D112" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="J112" s="12"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" s="11"/>
-      <c r="D113" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J113" s="12"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C114" s="14"/>
-      <c r="D114" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E114" s="14"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
+    <row r="81" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F86"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F87"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F88"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F89"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F90"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F92"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F93"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F94"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F95"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F96"/>
+      <c r="I96"/>
+    </row>
+    <row r="97" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F97"/>
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F98"/>
+      <c r="I98"/>
+    </row>
+    <row r="99" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F99"/>
+      <c r="I99"/>
+    </row>
+    <row r="100" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F100"/>
+      <c r="I100"/>
+    </row>
+    <row r="101" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F101"/>
+      <c r="I101"/>
+    </row>
+    <row r="102" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F102"/>
+      <c r="I102"/>
+    </row>
+    <row r="103" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F103"/>
+      <c r="I103"/>
+    </row>
+    <row r="104" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F104"/>
+      <c r="I104"/>
+    </row>
+    <row r="105" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F105"/>
+      <c r="I105"/>
+    </row>
+    <row r="106" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F106"/>
+      <c r="I106"/>
+    </row>
+    <row r="107" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F107"/>
+      <c r="I107"/>
+    </row>
+    <row r="108" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F108"/>
+      <c r="I108"/>
+    </row>
+    <row r="109" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F109"/>
+      <c r="I109"/>
+    </row>
+    <row r="110" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F110"/>
+      <c r="I110"/>
+    </row>
+    <row r="111" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F111"/>
+      <c r="I111"/>
+    </row>
+    <row r="112" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F112"/>
+      <c r="I112"/>
+    </row>
+    <row r="113" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F113"/>
+      <c r="I113"/>
+    </row>
+    <row r="114" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F114"/>
+      <c r="I114"/>
+    </row>
+    <row r="115" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F115"/>
+      <c r="I115"/>
+    </row>
+    <row r="116" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F116"/>
+      <c r="I116"/>
+    </row>
+    <row r="117" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F117"/>
+      <c r="I117"/>
+    </row>
+    <row r="118" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F118"/>
+      <c r="I118"/>
+    </row>
+    <row r="119" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F119"/>
+      <c r="I119"/>
+    </row>
+    <row r="120" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F120"/>
+      <c r="I120"/>
+    </row>
+    <row r="121" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F121"/>
+      <c r="I121"/>
+    </row>
+    <row r="122" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F122"/>
+      <c r="I122"/>
+    </row>
+    <row r="123" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F123"/>
+      <c r="I123"/>
+    </row>
+    <row r="124" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F124"/>
+      <c r="I124"/>
+    </row>
+    <row r="125" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F125"/>
+      <c r="I125"/>
+    </row>
+    <row r="126" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F126"/>
+      <c r="I126"/>
+    </row>
+    <row r="127" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F127"/>
+      <c r="I127"/>
+    </row>
+    <row r="128" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F128"/>
+      <c r="I128"/>
+    </row>
+    <row r="129" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F129"/>
+      <c r="I129"/>
+    </row>
+    <row r="130" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F130"/>
+      <c r="I130"/>
+    </row>
+    <row r="131" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F131"/>
+      <c r="I131"/>
+    </row>
+    <row r="132" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F132"/>
+      <c r="I132"/>
+    </row>
+    <row r="133" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F133"/>
+      <c r="I133"/>
+    </row>
+    <row r="134" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F134"/>
+      <c r="I134"/>
+    </row>
+    <row r="135" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F135"/>
+      <c r="I135"/>
+    </row>
+    <row r="136" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F136"/>
+      <c r="I136"/>
+    </row>
+    <row r="137" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F137"/>
+      <c r="I137"/>
+    </row>
+    <row r="138" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F138"/>
+      <c r="I138"/>
+    </row>
+    <row r="139" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F139"/>
+      <c r="I139"/>
+    </row>
+    <row r="140" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F140"/>
+      <c r="I140"/>
+    </row>
+    <row r="141" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F141"/>
+      <c r="I141"/>
+    </row>
+    <row r="142" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F142"/>
+      <c r="I142"/>
+    </row>
+    <row r="143" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F143"/>
+      <c r="I143"/>
+    </row>
+    <row r="144" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F144"/>
+      <c r="I144"/>
+    </row>
+    <row r="145" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F145"/>
+      <c r="I145"/>
+    </row>
+    <row r="146" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F146"/>
+      <c r="I146"/>
+    </row>
+    <row r="147" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F147"/>
+      <c r="I147"/>
+    </row>
+    <row r="148" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F148"/>
+      <c r="I148"/>
+    </row>
+    <row r="149" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F149"/>
+      <c r="I149"/>
+    </row>
+    <row r="150" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F150"/>
+      <c r="I150"/>
+    </row>
+    <row r="151" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F151"/>
+      <c r="I151"/>
+    </row>
+    <row r="152" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F152"/>
+      <c r="I152"/>
+    </row>
+    <row r="153" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F153"/>
+      <c r="I153"/>
+    </row>
+    <row r="154" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F154"/>
+      <c r="I154"/>
+    </row>
+    <row r="155" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F155"/>
+      <c r="I155"/>
+    </row>
+    <row r="156" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F156"/>
+      <c r="I156"/>
+    </row>
+    <row r="157" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F157"/>
+      <c r="I157"/>
+    </row>
+    <row r="158" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F158"/>
+      <c r="I158"/>
+    </row>
+    <row r="159" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F159"/>
+      <c r="I159"/>
+    </row>
+    <row r="160" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F160"/>
+      <c r="I160"/>
+    </row>
+    <row r="161" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F161"/>
+      <c r="I161"/>
+    </row>
+    <row r="162" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F162"/>
+      <c r="I162"/>
+    </row>
+    <row r="163" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F163"/>
+      <c r="I163"/>
+    </row>
+    <row r="164" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F164"/>
+      <c r="I164"/>
+    </row>
+    <row r="165" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F165"/>
+      <c r="I165"/>
+    </row>
+    <row r="166" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F166"/>
+      <c r="I166"/>
+    </row>
+    <row r="167" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F167"/>
+      <c r="I167"/>
+    </row>
+    <row r="168" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F168"/>
+      <c r="I168"/>
+    </row>
+    <row r="169" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F169"/>
+      <c r="I169"/>
+    </row>
+    <row r="170" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F170"/>
+      <c r="I170"/>
+    </row>
+    <row r="171" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F171"/>
+      <c r="I171"/>
+    </row>
+    <row r="172" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F172"/>
+      <c r="I172"/>
+    </row>
+    <row r="173" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F173"/>
+      <c r="I173"/>
+    </row>
+    <row r="174" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F174"/>
+      <c r="I174"/>
+    </row>
+    <row r="175" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F175"/>
+      <c r="I175"/>
+    </row>
+    <row r="176" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F176"/>
+      <c r="I176"/>
+    </row>
+    <row r="177" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F177"/>
+      <c r="I177"/>
+    </row>
+    <row r="178" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F178"/>
+      <c r="I178"/>
+    </row>
+    <row r="179" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F179"/>
+      <c r="I179"/>
+    </row>
+    <row r="180" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F180"/>
+      <c r="I180"/>
+    </row>
+    <row r="181" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F181"/>
+      <c r="I181"/>
+    </row>
+    <row r="182" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F182"/>
+      <c r="I182"/>
+    </row>
+    <row r="183" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F183"/>
+      <c r="I183"/>
+    </row>
+    <row r="184" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F184"/>
+      <c r="I184"/>
+    </row>
+    <row r="185" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F185"/>
+      <c r="I185"/>
+    </row>
+    <row r="186" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F186"/>
+      <c r="I186"/>
+    </row>
+    <row r="187" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F187"/>
+      <c r="I187"/>
+    </row>
+    <row r="188" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F188"/>
+      <c r="I188"/>
+    </row>
+    <row r="189" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F189"/>
+      <c r="I189"/>
+    </row>
+    <row r="190" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F190"/>
+      <c r="I190"/>
+    </row>
+    <row r="191" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F191"/>
+      <c r="I191"/>
+    </row>
+    <row r="192" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F192"/>
+      <c r="I192"/>
+    </row>
+    <row r="193" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F193"/>
+      <c r="I193"/>
+    </row>
+    <row r="194" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F194"/>
+      <c r="I194"/>
+    </row>
+    <row r="195" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F195"/>
+      <c r="I195"/>
+    </row>
+    <row r="196" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F196"/>
+      <c r="I196"/>
+    </row>
+    <row r="197" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F197"/>
+      <c r="I197"/>
+    </row>
+    <row r="198" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F198"/>
+      <c r="I198"/>
+    </row>
+    <row r="199" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F199"/>
+      <c r="I199"/>
+    </row>
+    <row r="200" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F200"/>
+      <c r="I200"/>
+    </row>
+    <row r="201" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F201"/>
+      <c r="I201"/>
+    </row>
+    <row r="202" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F202"/>
+      <c r="I202"/>
+    </row>
+    <row r="203" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F203"/>
+      <c r="I203"/>
+    </row>
+    <row r="204" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F204"/>
+      <c r="I204"/>
+    </row>
+    <row r="205" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F205"/>
+      <c r="I205"/>
+    </row>
+    <row r="206" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F206"/>
+      <c r="I206"/>
+    </row>
+    <row r="207" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F207"/>
+      <c r="I207"/>
+    </row>
+    <row r="208" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F208"/>
+      <c r="I208"/>
+    </row>
+    <row r="209" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F209"/>
+      <c r="I209"/>
+    </row>
+    <row r="210" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F210"/>
+      <c r="I210"/>
+    </row>
+    <row r="211" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F211"/>
+      <c r="I211"/>
+    </row>
+    <row r="212" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F212"/>
+      <c r="I212"/>
+    </row>
+    <row r="213" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F213"/>
+      <c r="I213"/>
+    </row>
+    <row r="214" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F214"/>
+      <c r="I214"/>
+    </row>
+    <row r="215" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F215"/>
+      <c r="I215"/>
+    </row>
+    <row r="216" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F216"/>
+      <c r="I216"/>
+    </row>
+    <row r="217" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F217"/>
+      <c r="I217"/>
+    </row>
+    <row r="218" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F218"/>
+      <c r="I218"/>
+    </row>
+    <row r="219" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F219"/>
+      <c r="I219"/>
+    </row>
+    <row r="220" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F220"/>
+      <c r="I220"/>
+    </row>
+    <row r="221" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F221"/>
+      <c r="I221"/>
+    </row>
+    <row r="222" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F222"/>
+      <c r="I222"/>
+    </row>
+    <row r="223" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F223"/>
+      <c r="I223"/>
+    </row>
+    <row r="224" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F224"/>
+      <c r="I224"/>
+    </row>
+    <row r="225" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F225"/>
+      <c r="I225"/>
+    </row>
+    <row r="226" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F226"/>
+      <c r="I226"/>
+    </row>
+    <row r="227" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F227"/>
+      <c r="I227"/>
+    </row>
+    <row r="228" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F228"/>
+      <c r="I228"/>
+    </row>
+    <row r="229" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F229"/>
+      <c r="I229"/>
+    </row>
+    <row r="230" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F230"/>
+      <c r="I230"/>
+    </row>
+    <row r="231" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F231"/>
+      <c r="I231"/>
+    </row>
+    <row r="232" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F232"/>
+      <c r="I232"/>
+    </row>
+    <row r="233" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F233"/>
+      <c r="I233"/>
+    </row>
+    <row r="234" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F234"/>
+      <c r="I234"/>
+    </row>
+    <row r="235" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F235"/>
+      <c r="I235"/>
+    </row>
+    <row r="236" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F236"/>
+      <c r="I236"/>
+    </row>
+    <row r="237" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F237"/>
+      <c r="I237"/>
+    </row>
+    <row r="238" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F238"/>
+      <c r="I238"/>
+    </row>
+    <row r="239" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F239"/>
+      <c r="I239"/>
+    </row>
+    <row r="240" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F240"/>
+      <c r="I240"/>
+    </row>
+    <row r="241" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F241"/>
+      <c r="I241"/>
+    </row>
+    <row r="242" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F242"/>
+      <c r="I242"/>
+    </row>
+    <row r="243" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F243"/>
+      <c r="I243"/>
+    </row>
+    <row r="244" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F244"/>
+      <c r="I244"/>
+    </row>
+    <row r="245" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F245"/>
+      <c r="I245"/>
+    </row>
+    <row r="246" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F246"/>
+      <c r="I246"/>
+    </row>
+    <row r="247" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F247"/>
+      <c r="I247"/>
+    </row>
+    <row r="248" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F248"/>
+      <c r="I248"/>
+    </row>
+    <row r="249" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F249"/>
+      <c r="I249"/>
+    </row>
+    <row r="250" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F250"/>
+      <c r="I250"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3123,17 +4891,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783ED213-B902-471A-BB9B-578EBBDB4B5B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J110"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3146,7 +4914,7 @@
     <col min="6" max="6" width="33.33203125" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
     <col min="8" max="8" width="34.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3208,7 +4976,7 @@
       <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="34" t="s">
         <v>35</v>
       </c>
       <c r="J3" s="12"/>
@@ -3287,7 +5055,7 @@
       <c r="H9" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="35" t="s">
         <v>39</v>
       </c>
       <c r="J9" s="12" t="s">
@@ -3437,7 +5205,7 @@
       <c r="H20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="34" t="s">
         <v>35</v>
       </c>
       <c r="J20" s="16"/>
@@ -3505,7 +5273,7 @@
       <c r="H25" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="34" t="s">
         <v>35</v>
       </c>
       <c r="J25" s="16"/>
@@ -3570,7 +5338,7 @@
       <c r="H30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="34" t="s">
         <v>35</v>
       </c>
       <c r="J30" s="16"/>
@@ -3638,7 +5406,7 @@
       <c r="H35" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="34" t="s">
         <v>35</v>
       </c>
       <c r="J35" s="16"/>
@@ -3706,7 +5474,7 @@
       <c r="H40" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="35" t="s">
         <v>39</v>
       </c>
       <c r="J40" s="16"/>
@@ -3780,7 +5548,7 @@
       <c r="H46" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I46" s="21" t="s">
+      <c r="I46" s="34" t="s">
         <v>35</v>
       </c>
       <c r="J46" s="16"/>
@@ -3824,7 +5592,7 @@
       <c r="H50" t="s">
         <v>82</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="34" t="s">
         <v>35</v>
       </c>
       <c r="J50" s="12"/>
@@ -3914,7 +5682,7 @@
       <c r="H56" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I56" s="21" t="s">
+      <c r="I56" s="34" t="s">
         <v>35</v>
       </c>
       <c r="J56" s="16"/>
@@ -3979,7 +5747,7 @@
       <c r="H61" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I61" s="21" t="s">
+      <c r="I61" s="34" t="s">
         <v>35</v>
       </c>
       <c r="J61" s="16"/>
@@ -4042,7 +5810,7 @@
         <v>34</v>
       </c>
       <c r="H66" s="14"/>
-      <c r="I66" s="21" t="s">
+      <c r="I66" s="35" t="s">
         <v>39</v>
       </c>
       <c r="J66" s="16"/>
@@ -4124,21 +5892,21 @@
       <c r="H76" t="s">
         <v>106</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I76" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D79" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="D79"/>
+      <c r="H79" s="2"/>
+      <c r="I79"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D80" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D80"/>
+      <c r="H80" s="2"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -4148,164 +5916,128 @@
       <c r="C81" t="s">
         <v>109</v>
       </c>
-      <c r="D81" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D83" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D84" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D81"/>
+      <c r="H81" s="2"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D82"/>
+      <c r="H82" s="2"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83"/>
+      <c r="H83" s="2"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D84"/>
+      <c r="H84" s="2"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85"/>
+      <c r="H85" s="2"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D86"/>
+      <c r="H86" s="2"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" t="s">
         <v>60</v>
       </c>
-      <c r="C85" t="s">
-        <v>111</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D87" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D88" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87"/>
+      <c r="H87" s="2"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D88"/>
+      <c r="H88" s="2"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B89" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="C89" t="s">
-        <v>114</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D91" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D92" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="D89"/>
+      <c r="H89" s="2"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D90"/>
+      <c r="H90" s="2"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91"/>
+      <c r="H91" s="2"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D92"/>
+      <c r="H92" s="2"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
         <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D95" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D96" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>117</v>
-      </c>
-      <c r="B97" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" t="s">
-        <v>118</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D99" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D100" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>119</v>
-      </c>
-      <c r="B101" t="s">
-        <v>60</v>
-      </c>
-      <c r="C101" t="s">
-        <v>120</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D103" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D104" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>121</v>
-      </c>
-      <c r="B105" t="s">
-        <v>60</v>
-      </c>
-      <c r="C105" t="s">
         <v>122</v>
       </c>
-      <c r="D105" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>123</v>
-      </c>
-      <c r="B110" t="s">
-        <v>60</v>
-      </c>
-      <c r="C110" t="s">
-        <v>124</v>
-      </c>
+      <c r="D93"/>
+      <c r="H93" s="2"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D94"/>
+      <c r="H94" s="2"/>
+      <c r="I94"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4314,13 +6046,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85973DE-7BB5-41C6-A22E-7D5F88B7E8CE}">
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4331,33 +6063,32 @@
     <col min="4" max="4" width="36.21875" customWidth="1"/>
     <col min="5" max="5" width="37.109375" customWidth="1"/>
     <col min="6" max="6" width="28.88671875" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="36.5546875" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" customWidth="1"/>
+    <col min="7" max="8" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="D1" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="F1" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="G1" s="25" t="s">
         <v>128</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>21</v>
@@ -4385,7 +6116,7 @@
       <c r="A3" s="11"/>
       <c r="C3" s="27"/>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="J3" s="12"/>
     </row>
@@ -4401,39 +6132,39 @@
       <c r="A5" s="11"/>
       <c r="C5" s="27"/>
       <c r="D5" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="I6" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="37" t="s">
         <v>35</v>
       </c>
       <c r="J6" s="16"/>
@@ -4457,8 +6188,9 @@
       <c r="A9" s="11"/>
       <c r="C9" s="27"/>
       <c r="D9" t="s">
-        <v>241</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="I9" s="14"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4473,35 +6205,41 @@
       <c r="A11" s="11"/>
       <c r="C11" s="27"/>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="F12" s="14"/>
+        <v>260</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="G12" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+        <v>259</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4525,7 +6263,7 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="J15" s="12"/>
     </row>
@@ -4543,35 +6281,41 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F18" s="14"/>
+        <v>261</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="G18" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+        <v>259</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4587,7 +6331,7 @@
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="8" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -4610,28 +6354,36 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4655,7 +6407,7 @@
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="J27" s="12"/>
     </row>
@@ -4664,7 +6416,7 @@
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="J28" s="12"/>
     </row>
@@ -4673,28 +6425,36 @@
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="F30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4706,7 +6466,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="8" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -4729,35 +6489,41 @@
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E34" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F35" s="14"/>
+        <v>261</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="G35" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+        <v>264</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="J35" s="16"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -4781,7 +6547,7 @@
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="J38" s="12"/>
     </row>
@@ -4799,34 +6565,39 @@
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E40" t="s">
-        <v>290</v>
-      </c>
-      <c r="G40" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
+      <c r="F41" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="J41" s="16"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -4850,7 +6621,7 @@
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="J44" s="12"/>
     </row>
@@ -4868,28 +6639,36 @@
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
+      <c r="F47" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="I47" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="J47" s="16"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -4906,10 +6685,10 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -4936,14 +6715,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56C8878-5F89-4500-94B7-38157EABF051}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4961,31 +6740,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="J1" s="32" t="s">
         <v>23</v>
@@ -5006,45 +6785,47 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="G6" s="14" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="I6" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" s="37" t="s">
         <v>35</v>
       </c>
       <c r="J6" s="16"/>
@@ -5064,50 +6845,52 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="G10" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="H10" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
-      </c>
-      <c r="F11" s="14"/>
+        <v>245</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="G11" s="14" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="I11" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="I11" s="37" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="16"/>
@@ -5127,42 +6910,48 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="D15" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="E16" t="s">
-        <v>270</v>
-      </c>
-      <c r="F16" s="14"/>
+        <v>245</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="G16" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+        <v>258</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="J16" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5180,40 +6969,48 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="E21" t="s">
-        <v>270</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+        <v>245</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="J21" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5231,152 +7028,426 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="E25" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="G25" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="I26" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="J26" s="16"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="16"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="16"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3AE418-11EA-44C9-BF77-8FF8AFA1164C}">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="D4" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="D5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>320</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="D6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" t="s">
+        <v>321</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="D7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="D11" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="D12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>320</v>
+      </c>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="D13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" t="s">
+        <v>383</v>
+      </c>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="C14" t="s">
+        <v>384</v>
+      </c>
+      <c r="D14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" t="s">
+        <v>322</v>
+      </c>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="D18" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="D19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>320</v>
+      </c>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="D20" t="s">
+        <v>317</v>
+      </c>
+      <c r="E20" t="s">
+        <v>346</v>
+      </c>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="C21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E21" t="s">
+        <v>322</v>
+      </c>
+      <c r="F21" t="s">
+        <v>352</v>
+      </c>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>